--- a/biology/Zoologie/Egerniinae/Egerniinae.xlsx
+++ b/biology/Zoologie/Egerniinae/Egerniinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Egerniinae sont une sous-famille de sauriens de la famille des Scincidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Egerniinae sont une sous-famille de sauriens de la famille des Scincidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de cette sous-famille se rencontrent en Océanie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de cette sous-famille se rencontrent en Océanie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (30 décembre 2015)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (30 décembre 2015) :
 Bellatorias Wells &amp; Wellington, 1984
 Corucia Gray, 1855
 Cyclodomorphus Fitzinger, 1843
@@ -580,7 +596,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Welch, 1982 : Herpetology of the Old World 2. Preliminary comments on the classification of skinks (family Scincidae) with specific reference to those genera found in Africa, Europe and southwest Asia. Herptile, vol. 7, no 4, p. 25-27.</t>
         </is>
